--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.020321.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.020321.xlsx_with_dialog_acts.xlsx
@@ -835,12 +835,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1479,12 +1479,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2087,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2527,12 +2527,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2607,12 +2607,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3247,12 +3247,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3407,12 +3407,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3971,12 +3971,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4011,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5263,12 +5263,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5383,12 +5383,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5827,12 +5827,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5907,12 +5907,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5947,12 +5947,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6467,12 +6467,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6627,12 +6627,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7267,12 +7267,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7587,12 +7587,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8231,12 +8231,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8551,12 +8551,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8831,12 +8831,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8871,12 +8871,12 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8911,12 +8911,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9031,12 +9031,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9071,12 +9071,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9151,12 +9151,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9191,12 +9191,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9231,12 +9231,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10479,12 +10479,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10555,12 +10555,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10821,12 +10821,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10935,12 +10935,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11011,12 +11011,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11125,12 +11125,12 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11239,12 +11239,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11623,12 +11623,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11737,12 +11737,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12231,12 +12231,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13831,12 +13831,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13945,12 +13945,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14211,12 +14211,12 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14439,12 +14439,12 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14519,12 +14519,12 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14557,12 +14557,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16385,12 +16385,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16765,12 +16765,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16879,12 +16879,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16917,12 +16917,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17335,12 +17335,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17487,12 +17487,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -17867,12 +17867,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17905,12 +17905,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18893,12 +18893,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19197,12 +19197,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19349,12 +19349,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19391,12 +19391,12 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19733,12 +19733,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19885,12 +19885,12 @@
       <c r="H498" t="inlineStr"/>
       <c r="I498" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20189,12 +20189,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20379,12 +20379,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20911,12 +20911,12 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20949,12 +20949,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20987,12 +20987,12 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
